--- a/INTLINE/data/142/STANOR/08651 Construction cost index for residential buildings.xlsx
+++ b/INTLINE/data/142/STANOR/08651 Construction cost index for residential buildings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="558">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
   <x:si>
     <x:t>08651: Construction cost index for residential buildings (2015=100), by month, contents and type of employment</x:t>
   </x:si>
@@ -1613,6 +1613,15 @@
   </x:si>
   <x:si>
     <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
   </x:si>
   <x:si>
     <x:t>Please note that base year 2000=100 is updated to 2015=100 from the publishing of the August 2019 indices. This means that all time series are rescaled to the new base year 2015=100.
@@ -1625,7 +1634,7 @@
     <x:t>Construction cost index:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220314 08:00</x:t>
+    <x:t>20220613 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -2081,7 +2090,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B581"/>
+  <x:dimension ref="A1:B584"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -6345,159 +6354,183 @@
         <x:v>130.5</x:v>
       </x:c>
     </x:row>
+    <x:row r="535" spans="1:2">
+      <x:c r="A535" s="2" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B535" s="3" t="n">
+        <x:v>131.3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="536" spans="1:2">
-      <x:c r="A536" s="4" t="s">
-        <x:v>533</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="538" spans="1:2">
-      <x:c r="A538" s="0" t="s">
+      <x:c r="A536" s="2" t="s">
         <x:v>534</x:v>
       </x:c>
+      <x:c r="B536" s="3" t="n">
+        <x:v>133.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="537" spans="1:2">
+      <x:c r="A537" s="2" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B537" s="3" t="n">
+        <x:v>134.6</x:v>
+      </x:c>
     </x:row>
     <x:row r="539" spans="1:2">
-      <x:c r="A539" s="0" t="s">
-        <x:v>535</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="540" spans="1:2">
-      <x:c r="A540" s="0" t="s">
+      <x:c r="A539" s="4" t="s">
         <x:v>536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="541" spans="1:2">
+      <x:c r="A541" s="0" t="s">
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:2">
       <x:c r="A542" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:2">
       <x:c r="A543" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:2">
       <x:c r="A545" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:2">
       <x:c r="A546" s="0" t="s">
-        <x:v>535</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="547" spans="1:2">
-      <x:c r="A547" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:2">
       <x:c r="A548" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:2">
       <x:c r="A549" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="550" spans="1:2">
+      <x:c r="A550" s="0" t="s">
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:2">
       <x:c r="A551" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
     <x:row r="552" spans="1:2">
       <x:c r="A552" s="0" t="s">
-        <x:v>544</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="553" spans="1:2">
-      <x:c r="A553" s="0" t="s">
         <x:v>545</x:v>
       </x:c>
     </x:row>
-    <x:row r="557" spans="1:2">
-      <x:c r="A557" s="0" t="s">
+    <x:row r="554" spans="1:2">
+      <x:c r="A554" s="0" t="s">
         <x:v>546</x:v>
       </x:c>
     </x:row>
-    <x:row r="559" spans="1:2">
-      <x:c r="A559" s="0" t="s">
+    <x:row r="555" spans="1:2">
+      <x:c r="A555" s="0" t="s">
         <x:v>547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="556" spans="1:2">
+      <x:c r="A556" s="0" t="s">
+        <x:v>548</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:2">
       <x:c r="A560" s="0" t="s">
-        <x:v>535</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="561" spans="1:2">
-      <x:c r="A561" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="562" spans="1:2">
       <x:c r="A562" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:2">
       <x:c r="A563" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:2">
       <x:c r="A564" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="565" spans="1:2">
+      <x:c r="A565" s="0" t="s">
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:2">
       <x:c r="A566" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:2">
       <x:c r="A567" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="568" spans="1:2">
-      <x:c r="A568" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="569" spans="1:2">
+      <x:c r="A569" s="0" t="s">
+        <x:v>554</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:2">
       <x:c r="A570" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:2">
       <x:c r="A571" s="0" t="s">
-        <x:v>553</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="577" spans="1:2">
-      <x:c r="A577" s="0" t="s">
-        <x:v>554</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="578" spans="1:2">
-      <x:c r="A578" s="0" t="s">
         <x:v>555</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="573" spans="1:2">
+      <x:c r="A573" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="574" spans="1:2">
+      <x:c r="A574" s="0" t="s">
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:2">
       <x:c r="A580" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:2">
       <x:c r="A581" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="583" spans="1:2">
+      <x:c r="A583" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="584" spans="1:2">
+      <x:c r="A584" s="0" t="s">
+        <x:v>560</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A536:B536"/>
+    <x:mergeCell ref="A539:B539"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
